--- a/biology/Zoologie/Dolichophis/Dolichophis.xlsx
+++ b/biology/Zoologie/Dolichophis/Dolichophis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolichophis est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichophis est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quatre espèces de ce genre se rencontrent de l'Est de l'Europe du Sud jusqu'au Moyen-Orient[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quatre espèces de ce genre se rencontrent de l'Est de l'Europe du Sud jusqu'au Moyen-Orient.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre peuvent mesurer jusqu'à plus de 200 cm et présentent de grands yeux aux pupilles rondes.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (19 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (19 août 2015) :
 Dolichophis caspius (Gmelin, 1789)
 Dolichophis cypriensis (Schätti, 1985)
 Dolichophis jugularis (Linnaeus, 1758)
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gistel, 1868 : Die Lurche Europas. Ein Beitrag zur Lehre von der geographischen Verbreitung derselben.  Blick in das Leben der Natur und des Menschen. Ein Taschenbuch zur Verbreitung gemeinnütziger Kenntniss insebesondere des Natur-, Länder- und Völkerkunde, Künste und Gewerbe. Gb. Wartig, Leipzig, p. 144-167.</t>
         </is>
